--- a/assembly steps.xlsx
+++ b/assembly steps.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\workspace\munia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>1. clean enclosure (dust/shit)</t>
   </si>
@@ -48,12 +53,6 @@
     <t>3. setup reflow oven, run PCB through it</t>
   </si>
   <si>
-    <t>4. solder all connectors/headers onto PCB</t>
-  </si>
-  <si>
-    <t>5. program microcontroller using pickit</t>
-  </si>
-  <si>
     <t>TOP COVER / BOTTOM COVER</t>
   </si>
   <si>
@@ -75,9 +74,6 @@
     <t>6. Drill 3mm power led, aligned left/vertical center to LCD</t>
   </si>
   <si>
-    <t>7. Drill 7mm hole in bottom part of enclosure for menu button</t>
-  </si>
-  <si>
     <t>8. Push in power led and menu button</t>
   </si>
   <si>
@@ -112,12 +108,42 @@
   </si>
   <si>
     <t>3. Tuck away wires and screw everything shut</t>
+  </si>
+  <si>
+    <t>6. clean dust and crap</t>
+  </si>
+  <si>
+    <t>4. inspect, fixup unintended bridges</t>
+  </si>
+  <si>
+    <t>5. solder all connectors/headers onto PCB</t>
+  </si>
+  <si>
+    <t>6. program microcontroller using pickit</t>
+  </si>
+  <si>
+    <t>7. Drill 6.5mm hole in bottom part of enclosure for menu button</t>
+  </si>
+  <si>
+    <t>11. Glue down led</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>without setup</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>ENCLOSURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,8 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +187,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +271,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,177 +529,293 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <f>SUM(B2:B40)</f>
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <f>B42-B3-B5</f>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
